--- a/artfynd/A 24539-2023.xlsx
+++ b/artfynd/A 24539-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111485917</v>
+        <v>111486117</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -735,17 +735,17 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>624090.1097011974</v>
+        <v>623993.6707231236</v>
       </c>
       <c r="R2" t="n">
-        <v>6933043.392863069</v>
+        <v>6933021.760048959</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -784,7 +784,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>10 plantor varav 2 blommande</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -811,7 +816,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486385</v>
+        <v>111485917</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -846,7 +851,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -866,17 +871,17 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>624029.7289273632</v>
+        <v>624090.1097011974</v>
       </c>
       <c r="R3" t="n">
-        <v>6932998.597210908</v>
+        <v>6933043.392863069</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -905,7 +910,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -915,12 +920,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:11</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Ca 20 ex varav 3 blommande</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -947,10 +947,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486450</v>
+        <v>111485854</v>
       </c>
       <c r="B4" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -959,55 +959,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>624051.1502826829</v>
+        <v>624096.1730324102</v>
       </c>
       <c r="R4" t="n">
-        <v>6932945.755648845</v>
+        <v>6933042.231978768</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1036,7 +1032,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1046,7 +1042,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1057,6 +1053,11 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Häll- och blockskog</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1073,7 +1074,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486400</v>
+        <v>111486347</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1108,7 +1109,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1118,7 +1119,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>i frukt</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1132,10 +1133,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>624030.1824148977</v>
+        <v>624030.5648888731</v>
       </c>
       <c r="R5" t="n">
-        <v>6932961.620511409</v>
+        <v>6933013.425735661</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1162,22 +1163,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1204,7 +1210,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486347</v>
+        <v>111486385</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1249,7 +1255,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>i frukt</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1263,10 +1269,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>624030.5648888731</v>
+        <v>624029.7289273632</v>
       </c>
       <c r="R6" t="n">
-        <v>6933013.425735661</v>
+        <v>6932998.597210908</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1298,7 +1304,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1308,12 +1314,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
+          <t>Ca 20 ex varav 3 blommande</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1340,7 +1346,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111486280</v>
+        <v>111486415</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1375,12 +1381,17 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1394,10 +1405,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>624009.7035872869</v>
+        <v>624040.2038791699</v>
       </c>
       <c r="R7" t="n">
-        <v>6933014.034667149</v>
+        <v>6932953.67081845</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1429,7 +1440,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1439,7 +1450,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1466,7 +1477,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486415</v>
+        <v>111486280</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1501,17 +1512,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1525,10 +1531,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>624040.2038791699</v>
+        <v>624009.7035872869</v>
       </c>
       <c r="R8" t="n">
-        <v>6932953.67081845</v>
+        <v>6933014.034667149</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1560,7 +1566,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1570,7 +1576,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1597,7 +1603,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486117</v>
+        <v>111486450</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1632,17 +1638,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1656,13 +1657,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>623993.6707231236</v>
+        <v>624051.1502826829</v>
       </c>
       <c r="R9" t="n">
-        <v>6933021.760048959</v>
+        <v>6932945.755648845</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1691,7 +1692,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1701,12 +1702,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>10 plantor varav 2 blommande</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1733,10 +1729,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111485854</v>
+        <v>111486400</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1745,51 +1741,60 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>624096.1730324102</v>
+        <v>624030.1824148977</v>
       </c>
       <c r="R10" t="n">
-        <v>6933042.231978768</v>
+        <v>6932961.620511409</v>
       </c>
       <c r="S10" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1813,22 +1818,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1839,11 +1844,6 @@
       </c>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>Häll- och blockskog</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">

--- a/artfynd/A 24539-2023.xlsx
+++ b/artfynd/A 24539-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486117</v>
+        <v>111486385</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -739,13 +739,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>623993.6707231236</v>
+        <v>624029.7289273632</v>
       </c>
       <c r="R2" t="n">
-        <v>6933021.760048959</v>
+        <v>6932998.597210908</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -774,7 +774,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -784,12 +784,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>10 plantor varav 2 blommande</t>
+          <t>Ca 20 ex varav 3 blommande</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -816,7 +816,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111485917</v>
+        <v>111486400</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -871,17 +871,17 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>624090.1097011974</v>
+        <v>624030.1824148977</v>
       </c>
       <c r="R3" t="n">
-        <v>6933043.392863069</v>
+        <v>6932961.620511409</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -905,22 +905,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -947,10 +947,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111485854</v>
+        <v>111486117</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -959,51 +959,60 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>624096.1730324102</v>
+        <v>623993.6707231236</v>
       </c>
       <c r="R4" t="n">
-        <v>6933042.231978768</v>
+        <v>6933021.760048959</v>
       </c>
       <c r="S4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1032,7 +1041,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1042,7 +1051,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>10 plantor varav 2 blommande</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1053,11 +1067,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Häll- och blockskog</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1210,7 +1219,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486385</v>
+        <v>111486415</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1245,7 +1254,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1255,7 +1264,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1269,10 +1278,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>624029.7289273632</v>
+        <v>624040.2038791699</v>
       </c>
       <c r="R6" t="n">
-        <v>6932998.597210908</v>
+        <v>6932953.67081845</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1304,7 +1313,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1314,12 +1323,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:11</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ca 20 ex varav 3 blommande</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1346,7 +1350,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111486415</v>
+        <v>111485917</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1381,7 +1385,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1391,7 +1395,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1401,17 +1405,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>624040.2038791699</v>
+        <v>624090.1097011974</v>
       </c>
       <c r="R7" t="n">
-        <v>6932953.67081845</v>
+        <v>6933043.392863069</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1440,7 +1444,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1450,7 +1454,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1477,7 +1481,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486280</v>
+        <v>111486450</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1512,12 +1516,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1531,10 +1535,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>624009.7035872869</v>
+        <v>624051.1502826829</v>
       </c>
       <c r="R8" t="n">
-        <v>6933014.034667149</v>
+        <v>6932945.755648845</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1566,7 +1570,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1576,7 +1580,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1603,10 +1607,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486450</v>
+        <v>111485854</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1615,55 +1619,51 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>624051.1502826829</v>
+        <v>624096.1730324102</v>
       </c>
       <c r="R9" t="n">
-        <v>6932945.755648845</v>
+        <v>6933042.231978768</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1702,7 +1702,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1713,6 +1713,11 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Häll- och blockskog</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1729,7 +1734,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486400</v>
+        <v>111486280</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1764,17 +1769,12 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>624030.1824148977</v>
+        <v>624009.7035872869</v>
       </c>
       <c r="R10" t="n">
-        <v>6932961.620511409</v>
+        <v>6933014.034667149</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1818,22 +1818,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 24539-2023.xlsx
+++ b/artfynd/A 24539-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486385</v>
+        <v>111486450</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,17 +715,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -739,10 +734,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>624029.7289273632</v>
+        <v>624051.1502826829</v>
       </c>
       <c r="R2" t="n">
-        <v>6932998.597210908</v>
+        <v>6932945.755648845</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -774,7 +769,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -784,12 +779,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:11</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ca 20 ex varav 3 blommande</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -816,7 +806,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486400</v>
+        <v>111486415</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -851,7 +841,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -875,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>624030.1824148977</v>
+        <v>624040.2038791699</v>
       </c>
       <c r="R3" t="n">
-        <v>6932961.620511409</v>
+        <v>6932953.67081845</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -905,22 +895,22 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -947,7 +937,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486117</v>
+        <v>111486385</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -982,7 +972,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1006,13 +996,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>623993.6707231236</v>
+        <v>624029.7289273632</v>
       </c>
       <c r="R4" t="n">
-        <v>6933021.760048959</v>
+        <v>6932998.597210908</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1041,7 +1031,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1051,12 +1041,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>10 plantor varav 2 blommande</t>
+          <t>Ca 20 ex varav 3 blommande</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1083,7 +1073,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486347</v>
+        <v>111486117</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1118,7 +1108,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1128,7 +1118,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>i frukt</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1142,13 +1132,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>624030.5648888731</v>
+        <v>623993.6707231236</v>
       </c>
       <c r="R5" t="n">
-        <v>6933013.425735661</v>
+        <v>6933021.760048959</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1192,7 +1182,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
+          <t>10 plantor varav 2 blommande</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1219,10 +1209,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486415</v>
+        <v>111485854</v>
       </c>
       <c r="B6" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1231,60 +1221,51 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>624040.2038791699</v>
+        <v>624096.1730324102</v>
       </c>
       <c r="R6" t="n">
-        <v>6932953.67081845</v>
+        <v>6933042.231978768</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1313,7 +1294,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1323,7 +1304,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1334,6 +1315,11 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>Häll- och blockskog</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1481,7 +1467,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486450</v>
+        <v>111486400</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1516,7 +1502,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1535,10 +1526,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>624051.1502826829</v>
+        <v>624030.1824148977</v>
       </c>
       <c r="R8" t="n">
-        <v>6932945.755648845</v>
+        <v>6932961.620511409</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1565,22 +1556,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1607,10 +1598,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111485854</v>
+        <v>111486280</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1619,51 +1610,55 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>624096.1730324102</v>
+        <v>624009.7035872869</v>
       </c>
       <c r="R9" t="n">
-        <v>6933042.231978768</v>
+        <v>6933014.034667149</v>
       </c>
       <c r="S9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1692,7 +1687,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1702,7 +1697,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1713,11 +1708,6 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Häll- och blockskog</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1734,7 +1724,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486280</v>
+        <v>111486347</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1769,12 +1759,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>i frukt</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1788,10 +1783,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>624009.7035872869</v>
+        <v>624030.5648888731</v>
       </c>
       <c r="R10" t="n">
-        <v>6933014.034667149</v>
+        <v>6933013.425735661</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1834,6 +1829,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 24539-2023.xlsx
+++ b/artfynd/A 24539-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486450</v>
+        <v>111486280</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,12 +715,12 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>624051.1502826829</v>
+        <v>624009.7035872869</v>
       </c>
       <c r="R2" t="n">
-        <v>6932945.755648845</v>
+        <v>6933014.034667149</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,7 +769,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -806,7 +806,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486415</v>
+        <v>111486385</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -841,7 +841,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>624040.2038791699</v>
+        <v>624029.7289273632</v>
       </c>
       <c r="R3" t="n">
-        <v>6932953.67081845</v>
+        <v>6932998.597210908</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -910,7 +910,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:11</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ca 20 ex varav 3 blommande</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -937,7 +942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486385</v>
+        <v>111486117</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -972,7 +977,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -996,13 +1001,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>624029.7289273632</v>
+        <v>623993.6707231236</v>
       </c>
       <c r="R4" t="n">
-        <v>6932998.597210908</v>
+        <v>6933021.760048959</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1031,7 +1036,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1041,12 +1046,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ca 20 ex varav 3 blommande</t>
+          <t>10 plantor varav 2 blommande</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1073,7 +1078,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486117</v>
+        <v>111486400</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1108,7 +1113,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1118,7 +1123,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1132,13 +1137,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>623993.6707231236</v>
+        <v>624030.1824148977</v>
       </c>
       <c r="R5" t="n">
-        <v>6933021.760048959</v>
+        <v>6932961.620511409</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1162,27 +1167,22 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>10 plantor varav 2 blommande</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1209,10 +1209,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111485854</v>
+        <v>111486347</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1221,51 +1221,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>624096.1730324102</v>
+        <v>624030.5648888731</v>
       </c>
       <c r="R6" t="n">
-        <v>6933042.231978768</v>
+        <v>6933013.425735661</v>
       </c>
       <c r="S6" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1294,7 +1303,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1304,7 +1313,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1315,11 +1329,6 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>Häll- och blockskog</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
@@ -1336,7 +1345,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111485917</v>
+        <v>111486450</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1371,17 +1380,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -1391,17 +1395,17 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>624090.1097011974</v>
+        <v>624051.1502826829</v>
       </c>
       <c r="R7" t="n">
-        <v>6933043.392863069</v>
+        <v>6932945.755648845</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1430,7 +1434,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1440,7 +1444,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1467,10 +1471,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486400</v>
+        <v>111485854</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1479,60 +1483,51 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>624030.1824148977</v>
+        <v>624096.1730324102</v>
       </c>
       <c r="R8" t="n">
-        <v>6932961.620511409</v>
+        <v>6933042.231978768</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1556,22 +1551,22 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1582,6 +1577,11 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Häll- och blockskog</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1598,7 +1598,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486280</v>
+        <v>111486415</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1633,12 +1633,17 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1652,10 +1657,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>624009.7035872869</v>
+        <v>624040.2038791699</v>
       </c>
       <c r="R9" t="n">
-        <v>6933014.034667149</v>
+        <v>6932953.67081845</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1687,7 +1692,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1697,7 +1702,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1724,7 +1729,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486347</v>
+        <v>111485917</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1759,7 +1764,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1769,7 +1774,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>i frukt</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1779,17 +1784,17 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>624030.5648888731</v>
+        <v>624090.1097011974</v>
       </c>
       <c r="R10" t="n">
-        <v>6933013.425735661</v>
+        <v>6933043.392863069</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1818,7 +1823,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1828,12 +1833,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 24539-2023.xlsx
+++ b/artfynd/A 24539-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY10"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486280</v>
+        <v>111485854</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,55 +692,51 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>624009.7035872869</v>
+        <v>624096.1730324102</v>
       </c>
       <c r="R2" t="n">
-        <v>6933014.034667149</v>
+        <v>6933042.231978768</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -769,7 +765,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -779,7 +775,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -790,6 +786,11 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Häll- och blockskog</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -806,7 +807,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486385</v>
+        <v>111486347</v>
       </c>
       <c r="B3" t="n">
         <v>96348</v>
@@ -851,7 +852,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>i frukt</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -865,10 +866,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>624029.7289273632</v>
+        <v>624030.5648888731</v>
       </c>
       <c r="R3" t="n">
-        <v>6932998.597210908</v>
+        <v>6933013.425735661</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -900,7 +901,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -910,12 +911,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Ca 20 ex varav 3 blommande</t>
+          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -942,7 +943,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486117</v>
+        <v>111486385</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -977,7 +978,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1001,13 +1002,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>623993.6707231236</v>
+        <v>624029.7289273632</v>
       </c>
       <c r="R4" t="n">
-        <v>6933021.760048959</v>
+        <v>6932998.597210908</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1036,7 +1037,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1046,12 +1047,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>10 plantor varav 2 blommande</t>
+          <t>Ca 20 ex varav 3 blommande</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1078,7 +1079,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486400</v>
+        <v>111486117</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1113,7 +1114,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1123,7 +1124,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1137,13 +1138,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>624030.1824148977</v>
+        <v>623993.6707231236</v>
       </c>
       <c r="R5" t="n">
-        <v>6932961.620511409</v>
+        <v>6933021.760048959</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1167,22 +1168,27 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>10 plantor varav 2 blommande</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1209,7 +1215,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486347</v>
+        <v>111485917</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1244,7 +1250,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1254,7 +1260,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>i frukt</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1264,17 +1270,17 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>624030.5648888731</v>
+        <v>624090.1097011974</v>
       </c>
       <c r="R6" t="n">
-        <v>6933013.425735661</v>
+        <v>6933043.392863069</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1303,7 +1309,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1313,12 +1319,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1471,10 +1472,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111485854</v>
+        <v>111486415</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1483,51 +1484,60 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>624096.1730324102</v>
+        <v>624040.2038791699</v>
       </c>
       <c r="R8" t="n">
-        <v>6933042.231978768</v>
+        <v>6932953.67081845</v>
       </c>
       <c r="S8" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1556,7 +1566,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1566,7 +1576,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1577,11 +1587,6 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Häll- och blockskog</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1598,7 +1603,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486415</v>
+        <v>111486400</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1633,7 +1638,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1657,10 +1662,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>624040.2038791699</v>
+        <v>624030.1824148977</v>
       </c>
       <c r="R9" t="n">
-        <v>6932953.67081845</v>
+        <v>6932961.620511409</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1687,22 +1692,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1729,7 +1734,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111485917</v>
+        <v>111486280</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1767,11 +1772,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>blomning</t>
@@ -1784,17 +1784,17 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>624090.1097011974</v>
+        <v>624009.7035872869</v>
       </c>
       <c r="R10" t="n">
-        <v>6933043.392863069</v>
+        <v>6933014.034667149</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1833,7 +1833,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1857,6 +1857,132 @@
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111936460</v>
+      </c>
+      <c r="B11" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>624081.2781785419</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6932945.030377736</v>
+      </c>
+      <c r="S11" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Fredrik Schaerström</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Fredrik Schaerström</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 24539-2023.xlsx
+++ b/artfynd/A 24539-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111485854</v>
+        <v>111486347</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,51 +692,60 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>624096.1730324102</v>
+        <v>624030.5648888731</v>
       </c>
       <c r="R2" t="n">
-        <v>6933042.231978768</v>
+        <v>6933013.425735661</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -765,7 +774,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -775,7 +784,12 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -786,11 +800,6 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Häll- och blockskog</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
@@ -807,10 +816,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111486347</v>
+        <v>111485854</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -819,60 +828,51 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>i frukt</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>624030.5648888731</v>
+        <v>624096.1730324102</v>
       </c>
       <c r="R3" t="n">
-        <v>6933013.425735661</v>
+        <v>6933042.231978768</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -901,7 +901,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -911,12 +911,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -927,6 +922,11 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Häll- och blockskog</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -943,7 +943,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486385</v>
+        <v>111486117</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -978,7 +978,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -1002,13 +1002,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>624029.7289273632</v>
+        <v>623993.6707231236</v>
       </c>
       <c r="R4" t="n">
-        <v>6932998.597210908</v>
+        <v>6933021.760048959</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1047,12 +1047,12 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>Ca 20 ex varav 3 blommande</t>
+          <t>10 plantor varav 2 blommande</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1079,7 +1079,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111486117</v>
+        <v>111485917</v>
       </c>
       <c r="B5" t="n">
         <v>96348</v>
@@ -1114,7 +1114,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -1134,17 +1134,17 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>623993.6707231236</v>
+        <v>624090.1097011974</v>
       </c>
       <c r="R5" t="n">
-        <v>6933021.760048959</v>
+        <v>6933043.392863069</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1183,12 +1183,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>10 plantor varav 2 blommande</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1215,7 +1210,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111485917</v>
+        <v>111486385</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1250,7 +1245,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1270,17 +1265,17 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>624090.1097011974</v>
+        <v>624029.7289273632</v>
       </c>
       <c r="R6" t="n">
-        <v>6933043.392863069</v>
+        <v>6932998.597210908</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1309,7 +1304,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1319,7 +1314,12 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:11</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Ca 20 ex varav 3 blommande</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1472,7 +1472,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486415</v>
+        <v>111486280</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1507,17 +1507,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1531,10 +1526,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>624040.2038791699</v>
+        <v>624009.7035872869</v>
       </c>
       <c r="R8" t="n">
-        <v>6932953.67081845</v>
+        <v>6933014.034667149</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1566,7 +1561,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1576,7 +1571,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1603,7 +1598,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486400</v>
+        <v>111486415</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1638,7 +1633,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1662,10 +1657,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>624030.1824148977</v>
+        <v>624040.2038791699</v>
       </c>
       <c r="R9" t="n">
-        <v>6932961.620511409</v>
+        <v>6932953.67081845</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1692,22 +1687,22 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1734,7 +1729,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486280</v>
+        <v>111486400</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1769,12 +1764,17 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1788,10 +1788,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>624009.7035872869</v>
+        <v>624030.1824148977</v>
       </c>
       <c r="R10" t="n">
-        <v>6933014.034667149</v>
+        <v>6932961.620511409</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1818,22 +1818,22 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 24539-2023.xlsx
+++ b/artfynd/A 24539-2023.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111486347</v>
+        <v>111486400</v>
       </c>
       <c r="B2" t="n">
         <v>96348</v>
@@ -715,7 +715,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>i frukt</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>624030.5648888731</v>
+        <v>624030.1824148977</v>
       </c>
       <c r="R2" t="n">
-        <v>6933013.425735661</v>
+        <v>6932961.620511409</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,27 +769,22 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-08-12</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -816,10 +811,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111485854</v>
+        <v>111486347</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -828,51 +823,60 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
+          <t>plantor/tuvor</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>i frukt</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>624096.1730324102</v>
+        <v>624030.5648888731</v>
       </c>
       <c r="R3" t="n">
-        <v>6933042.231978768</v>
+        <v>6933013.425735661</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -901,7 +905,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -911,7 +915,12 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Ca 20 ex, flesta som bladrosetter. 1 överblommad fruktbildande</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,11 +931,6 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Häll- och blockskog</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -943,7 +947,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111486117</v>
+        <v>111485917</v>
       </c>
       <c r="B4" t="n">
         <v>96348</v>
@@ -978,7 +982,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -998,17 +1002,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Glödenhöjden (Glödenhöjden), Mpd</t>
+          <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>623993.6707231236</v>
+        <v>624090.1097011974</v>
       </c>
       <c r="R4" t="n">
-        <v>6933021.760048959</v>
+        <v>6933043.392863069</v>
       </c>
       <c r="S4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1037,7 +1041,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1047,12 +1051,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>14:17</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>10 plantor varav 2 blommande</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1079,10 +1078,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111485917</v>
+        <v>111485854</v>
       </c>
       <c r="B5" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1091,60 +1090,51 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
           <t>Glödenhöjden nordost (Glödenhöjden), Mpd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>624090.1097011974</v>
+        <v>624096.1730324102</v>
       </c>
       <c r="R5" t="n">
-        <v>6933043.392863069</v>
+        <v>6933042.231978768</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1173,7 +1163,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1183,7 +1173,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:02</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1194,6 +1184,11 @@
       </c>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>Häll- och blockskog</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1210,7 +1205,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111486385</v>
+        <v>111486280</v>
       </c>
       <c r="B6" t="n">
         <v>96348</v>
@@ -1245,12 +1240,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
+          <t>3</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1269,10 +1259,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>624029.7289273632</v>
+        <v>624009.7035872869</v>
       </c>
       <c r="R6" t="n">
-        <v>6932998.597210908</v>
+        <v>6933014.034667149</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1304,7 +1294,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1314,12 +1304,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>14:11</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>Ca 20 ex varav 3 blommande</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1346,7 +1331,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111486450</v>
+        <v>111486415</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1381,7 +1366,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>plantor/tuvor</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1400,10 +1390,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>624051.1502826829</v>
+        <v>624040.2038791699</v>
       </c>
       <c r="R7" t="n">
-        <v>6932945.755648845</v>
+        <v>6932953.67081845</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1435,7 +1425,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1445,7 +1435,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:43</t>
+          <t>13:46</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1472,7 +1462,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111486280</v>
+        <v>111486450</v>
       </c>
       <c r="B8" t="n">
         <v>96348</v>
@@ -1507,12 +1497,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>blomning</t>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1526,10 +1516,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>624009.7035872869</v>
+        <v>624051.1502826829</v>
       </c>
       <c r="R8" t="n">
-        <v>6933014.034667149</v>
+        <v>6932945.755648845</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1561,7 +1551,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1571,7 +1561,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:17</t>
+          <t>13:43</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1598,7 +1588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111486415</v>
+        <v>111486117</v>
       </c>
       <c r="B9" t="n">
         <v>96348</v>
@@ -1643,7 +1633,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1657,13 +1647,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>624040.2038791699</v>
+        <v>623993.6707231236</v>
       </c>
       <c r="R9" t="n">
-        <v>6932953.67081845</v>
+        <v>6933021.760048959</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1692,7 +1682,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:17</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1702,7 +1692,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:46</t>
+          <t>14:17</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>10 plantor varav 2 blommande</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1729,7 +1724,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111486400</v>
+        <v>111486385</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1764,7 +1759,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>20</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1774,7 +1769,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>fullt utvecklade blad</t>
+          <t>blomning</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1788,10 +1783,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>624030.1824148977</v>
+        <v>624029.7289273632</v>
       </c>
       <c r="R10" t="n">
-        <v>6932961.620511409</v>
+        <v>6932998.597210908</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1818,22 +1813,27 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-12</t>
         </is>
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>14:11</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Ca 20 ex varav 3 blommande</t>
         </is>
       </c>
       <c r="AD10" t="b">

--- a/artfynd/A 24539-2023.xlsx
+++ b/artfynd/A 24539-2023.xlsx
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>624081.2781785419</v>
+        <v>624081</v>
       </c>
       <c r="R11" t="n">
-        <v>6932945.030377736</v>
+        <v>6932945</v>
       </c>
       <c r="S11" t="n">
         <v>20</v>
@@ -1947,19 +1947,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD11" t="b">

--- a/artfynd/A 24539-2023.xlsx
+++ b/artfynd/A 24539-2023.xlsx
@@ -1863,7 +1863,7 @@
         <v>111936460</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>

--- a/artfynd/A 24539-2023.xlsx
+++ b/artfynd/A 24539-2023.xlsx
@@ -1863,7 +1863,7 @@
         <v>111936460</v>
       </c>
       <c r="B11" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
